--- a/data/long_dif/P37-Edad-long_dif.xlsx
+++ b/data/long_dif/P37-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>35,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>32,11%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28,91%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32,97%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>36,83%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30,14%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>27,92%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>33,72%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,33; 47,87</t>
+          <t>28,12; 49,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,64; 40,25</t>
+          <t>19,41; 39,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,61; 43,82</t>
+          <t>15,3; 40,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,32; 40,57</t>
+          <t>21,79; 52,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,85; 43,12</t>
+          <t>24,83; 45,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,68; 36,56</t>
+          <t>24,13; 40,95</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20,89; 38,95</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20,47; 46,3</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>29,78; 44,36</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24,16; 37,2</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>20,58; 36,08</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>25,2; 44,7</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>41,5%</t>
+          <t>41,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45,5%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,14%</t>
+          <t>36,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>44,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,82%</t>
+          <t>47,63%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39,45%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35,61%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>38,15%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>44,75%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>41,19%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>36,22%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,03; 42,74</t>
+          <t>22,02; 42,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,2; 52,45</t>
+          <t>31,66; 52,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,27; 55,7</t>
+          <t>30,99; 57,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39,05; 57,05</t>
+          <t>23,39; 52,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,41; 45,61</t>
+          <t>35,66; 55,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,26; 52,57</t>
+          <t>38,84; 57,26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30,72; 51,26</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>22,83; 51,05</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31,3; 45,16</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>38,73; 52,04</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>32,9; 50,42</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26,27; 47,27</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>20,25%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>31,64%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31,42%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>25,01%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25,11%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>30,89%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>30,06%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,68; 41,62</t>
+          <t>20,43; 39,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,93; 40,48</t>
+          <t>21,28; 40,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,72; 28,29</t>
+          <t>17,33; 43,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,83; 27,7</t>
+          <t>15,41; 45,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,65; 32,0</t>
+          <t>13,31; 27,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,9; 31,11</t>
+          <t>13,94; 28,65</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22,44; 41,63</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20,91; 45,67</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19,68; 31,36</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>19,15; 30,82</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>23,5; 38,77</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21,43; 40,94</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,55; 53,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 27,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,74; 39,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,26; 36,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,31; 43,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,09; 29,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>34,81%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>54,4%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>44,66%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>30,94%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>49,85%</t>
+          <t>29,61%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36,65%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29,32%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>33,02%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25,2%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>31,87%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25,12%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,5; 49,12</t>
+          <t>24,39; 51,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,84; 65,56</t>
+          <t>14,62; 29,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,9; 49,74</t>
+          <t>14,99; 43,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,34; 51,66</t>
+          <t>8,88; 40,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,44; 45,84</t>
+          <t>23,3; 39,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,77; 57,69</t>
+          <t>23,47; 36,7</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27,94; 46,73</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>20,25; 40,37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>26,85; 43,42</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19,94; 30,09</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23,09; 41,79</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16,98; 35,95</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>54,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>57,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>48,17%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>44,31%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>40,8%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>43,6%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>39,61%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>49,56%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>50,03%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>45,83%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,23; 37,79</t>
+          <t>27,95; 48,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,68; 34,97</t>
+          <t>44,67; 66,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,36; 37,69</t>
+          <t>43,42; 74,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,07; 33,46</t>
+          <t>26,51; 67,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,63; 34,17</t>
+          <t>31,85; 49,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,59; 31,34</t>
+          <t>37,08; 51,6</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>31,71; 50,73</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>33,24; 55,39</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>32,76; 46,84</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>43,23; 57,2</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>41,1; 62,31</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>33,45; 56,76</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>26,51%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>28,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>26,08%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22,55%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>27,08%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>27,37%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25,25%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>18,1%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>29,04%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,18; 28,01</t>
+          <t>17,8; 42,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,34; 33,81</t>
+          <t>17,1; 34,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,56; 36,78</t>
+          <t>7,9; 22,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,1; 34,15</t>
+          <t>12,87; 58,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,95; 30,76</t>
+          <t>20,47; 36,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,21; 32,26</t>
+          <t>20,11; 33,42</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16,31; 32,64</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18,62; 37,77</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21,03; 35,97</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19,85; 31,46</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>12,8; 23,68</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>19,36; 47,86</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>49,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>49,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>48,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>47,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>49,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>48,57%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>40,83; 58,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>41,82; 58,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>41,17; 54,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>41,74; 53,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>43,38; 54,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>43,45; 53,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>29,95%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>28,56%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>29,72%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>35,2%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>27,54%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>28,75%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>27,96%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>22,63; 40,46</t>
+          <t>13,67; 26,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,46; 31,74</t>
+          <t>20,24; 35,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,56; 27,35</t>
+          <t>20,77; 38,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>18,9; 29,33</t>
+          <t>13,04; 30,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,94; 32,28</t>
+          <t>24,48; 36,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,26; 28,31</t>
+          <t>23,9; 34,37</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>24,02; 37,16</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>26,69; 44,78</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>20,45; 29,36</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>23,59; 32,73</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>23,84; 34,66</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>21,75; 34,31</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>50,31%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>48,85%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>48,62%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>47,96%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>28,45%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,36%</t>
+          <t>46,85%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>46,0%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>33,6%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>49,23%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>47,83%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>47,27%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>41,17%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>21,55; 35,24</t>
+          <t>40,47; 59,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>18,96; 30,27</t>
+          <t>40,69; 56,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>23,45; 35,0</t>
+          <t>40,1; 56,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,81; 35,13</t>
+          <t>37,25; 59,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>24,06; 33,19</t>
+          <t>41,75; 55,76</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>23,83; 30,95</t>
+          <t>41,65; 52,88</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>39,29; 52,19</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>25,0; 43,61</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>44,07; 55,04</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>42,98; 52,67</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>41,77; 52,67</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>33,91; 48,02</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>48,02%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>53,81%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>49,8%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>44,5%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>24,59%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>24,29%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>31,2%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>25,92%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>24,63%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>23,98%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>30,87%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>40,29; 55,79</t>
+          <t>22,78; 41,78</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>47,36; 61,19</t>
+          <t>18,8; 31,74</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>42,77; 56,24</t>
+          <t>17,39; 30,52</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>39,12; 50,64</t>
+          <t>21,65; 41,65</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>43,88; 54,12</t>
+          <t>16,6; 27,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>44,94; 54,01</t>
+          <t>19,64; 29,67</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>18,43; 30,85</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>22,91; 40,55</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>21,33; 32,95</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>20,84; 29,53</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>19,8; 28,83</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>24,24; 37,45</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>18,25; 32,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>16,64; 26,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>15,9; 27,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>20,38; 30,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>18,55; 27,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>20,06; 27,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>28,48%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>30,41%</t>
+          <t>25,64%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>30,75%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>24,08%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>26,66%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>28,19%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>28,25%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>25,75%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>31,33%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>18,0; 31,88</t>
+          <t>22,48; 35,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>24,06; 37,38</t>
+          <t>20,17; 31,76</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>25,03; 41,84</t>
+          <t>19,72; 41,72</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>21,63; 33,58</t>
+          <t>26,06; 48,15</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>23,46; 33,67</t>
+          <t>21,98; 34,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>24,93; 34,32</t>
+          <t>25,4; 36,36</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>18,75; 30,3</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>18,17; 36,27</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>23,84; 32,62</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 32,16</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>20,83; 33,06</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>24,57; 39,07</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>44,09%</t>
+          <t>47,92%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>51,17%</t>
+          <t>52,17%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>42,81%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>43,08%</t>
+          <t>43,07%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>44,35%</t>
+          <t>49,74%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>44,15%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>52,26%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>51,52%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>48,85%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>48,06%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>47,56%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>47,02%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>36,21; 52,47</t>
+          <t>40,71; 55,46</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>44,24; 58,84</t>
+          <t>45,47; 59,18</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>36,65; 53,06</t>
+          <t>32,56; 50,8</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>36,59; 50,22</t>
+          <t>32,79; 53,27</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>38,4; 49,81</t>
+          <t>43,19; 56,24</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>42,09; 52,09</t>
+          <t>38,16; 49,54</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>45,53; 58,94</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>41,93; 60,33</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>43,9; 53,45</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>43,66; 52,96</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>42,45; 53,24</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>40,02; 54,6</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>23,66%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>21,82%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>22,96%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>23,69%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>26,69%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>21,65%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>23,74; 41,33</t>
+          <t>17,46; 31,97</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>12,95; 24,1</t>
+          <t>16,99; 28,12</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>15,6; 30,37</t>
+          <t>22,56; 37,23</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>23,16; 35,77</t>
+          <t>14,28; 30,92</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>22,42; 34,1</t>
+          <t>16,72; 28,41</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>19,73; 27,84</t>
+          <t>20,36; 30,3</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>18,57; 30,12</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>15,04; 30,23</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>18,75; 27,84</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>20,12; 27,59</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>21,98; 31,51</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>16,29; 27,96</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>38,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>32,62; 58,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>20,12; 38,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>25,41; 43,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>21,01; 34,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>31,87; 48,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>22,6; 34,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
+          <t>23,47%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>28,33%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>31,33%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
           <t>27,84%</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>37,56%</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>33,67%</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>38,99%</t>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>34,72%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>27,65%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>28,14%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>29,0%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>29,23%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>27,97%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>29,13; 52,83</t>
+          <t>18,52; 32,96</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>32,16; 48,61</t>
+          <t>23,84; 36,97</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>21,18; 36,29</t>
+          <t>16,6; 31,3</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>29,82; 45,04</t>
+          <t>18,75; 38,79</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>27,3; 41,03</t>
+          <t>24,25; 39,55</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>32,93; 44,16</t>
+          <t>21,91; 34,44</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>26,69; 44,16</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>20,32; 36,55</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>23,18; 33,48</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>24,88; 33,66</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>23,45; 35,16</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>21,59; 34,64</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>43,75%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>51,18%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>47,08%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>46,71%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>45,64%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>43,64%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>37,58%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>47,64%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>44,66%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>47,36%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>42,22%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>47,2%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>9,43; 22,32</t>
+          <t>35,04; 51,87</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>23,03; 38,67</t>
+          <t>44,17; 57,94</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>28,95; 46,27</t>
+          <t>37,79; 57,06</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>27,77; 42,87</t>
+          <t>35,74; 57,07</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>21,47; 33,96</t>
+          <t>37,42; 54,34</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>26,93; 38,66</t>
+          <t>36,52; 50,11</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>28,93; 46,58</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>38,37; 56,77</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>39,48; 50,56</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>42,72; 52,09</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>36,14; 48,77</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>40,06; 54,54</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>31,3%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>31,53%</t>
+          <t>29,46%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>28,51%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>27,69%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>24,71%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>27,2%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>23,64%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>28,56%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>24,83%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>27,51; 35,97</t>
+          <t>23,79; 40,64</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>23,24; 29,61</t>
+          <t>13,34; 24,76</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>28,57; 34,91</t>
+          <t>21,65; 38,05</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>26,63; 31,7</t>
+          <t>15,38; 34,68</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>28,77; 33,98</t>
+          <t>17,16; 30,67</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>25,75; 29,73</t>
+          <t>22,12; 34,62</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>19,12; 38,58</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>17,56; 32,88</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>22,27; 33,34</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>19,36; 27,55</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>22,97; 34,96</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>18,51; 31,15</t>
         </is>
       </c>
     </row>
@@ -2064,37 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>42,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>44,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>42,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>46,56%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>38,92; 47,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>45,53; 52,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>39,71; 46,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>41,33; 47,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>40,36; 45,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>44,21; 48,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>42,71%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>28,35%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>26,99%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>26,95%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>35,16%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>38,0%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>27,6%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>28,53%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>30,73%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>22,45; 29,58</t>
+          <t>33,72; 55,66</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>21,95; 28,09</t>
+          <t>19,5; 37,94</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>22,51; 28,44</t>
+          <t>20,99; 41,87</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>24,22; 29,28</t>
+          <t>14,1; 36,0</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>23,42; 28,19</t>
+          <t>25,23; 42,9</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>23,89; 27,67</t>
+          <t>20,52; 33,01</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>18,86; 36,69</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>23,53; 52,82</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>31,64; 45,13</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>23,05; 34,04</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>21,34; 35,8</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>22,24; 41,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>41,02%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>41,05%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>46,56%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>42,61%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>28,53%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>37,58%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>42,03%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>36,52%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>34,09%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>39,13%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>44,05%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>39,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>30,56; 50,18</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>32,75; 50,19</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>35,92; 58,56</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>31,11; 56,19</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>21,55; 36,37</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>30,65; 45,66</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>31,84; 53,11</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>24,53; 50,86</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>27,87; 40,34</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>33,66; 44,85</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>35,71; 52,44</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>30,26; 49,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>16,27%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>30,6%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>22,96%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>32,53%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>37,24%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>35,44%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>31,03%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>28,32%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>27,9%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>33,27%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>27,43%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>30,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>10,8; 23,78</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>23,41; 39,12</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>14,02; 33,89</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>21,55; 44,39</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>28,26; 46,69</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>28,16; 42,86</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>21,92; 42,72</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>17,67; 42,47</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>22,5; 34,64</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>27,81; 38,49</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>20,78; 35,32</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>22,29; 41,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>30,9%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>26,5%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>27,43%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>27,42%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>31,45%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>29,26%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>29,76%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>31,35%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>31,18%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>27,9%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>28,62%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>29,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>27,29; 35,82</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>23,63; 30,0</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>23,21; 32,7</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>22,54; 32,67</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>28,5; 34,85</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>26,7; 31,81</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>26,49; 32,87</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>26,55; 35,96</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>28,95; 33,98</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>25,73; 29,73</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>26,16; 31,44</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>26,48; 33,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>42,73%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>48,5%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>47,85%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>44,48%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>43,01%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>43,98%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>43,51%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>41,28%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>42,87%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>46,2%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>45,64%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>42,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>38,25; 46,45</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>45,31; 52,17</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>42,92; 53,26</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>38,7; 50,25</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>39,51; 46,14</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>40,76; 46,74</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>39,94; 46,97</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>36,82; 45,71</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>40,33; 45,21</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>44,06; 48,65</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>42,77; 48,83</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>39,06; 46,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>26,37%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>25,01%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>28,1%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>25,54%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>26,72%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>27,37%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>25,95%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>25,9%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>25,74%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>27,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>22,73; 30,7</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>21,98; 28,2</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>20,97; 28,46</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>22,95; 34,74</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>22,76; 28,78</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>24,44; 29,71</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>23,85; 30,08</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>23,46; 31,78</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>23,8; 28,55</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>23,88; 27,93</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>23,13; 28,38</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>24,21; 31,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P37-Edad-long_dif.xlsx
+++ b/data/long_dif/P37-Edad-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1720,7 +1720,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1988,7 +1988,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2388,7 +2388,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2520,7 +2520,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2788,7 +2788,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3188,7 +3188,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3320,7 +3320,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
